--- a/tests/input/invalid.xlsx
+++ b/tests/input/invalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D4A5A-AABE-4508-95B2-3491C75E486E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521777F-33B1-47A0-B32D-45952B8C329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
+    <workbookView xWindow="14520" yWindow="480" windowWidth="7185" windowHeight="7605" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="230">
   <si>
-    <t>Leuko</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>MCV</t>
-  </si>
-  <si>
-    <t>Trom</t>
-  </si>
-  <si>
-    <t>BSE</t>
   </si>
   <si>
     <t>Zwelling_Elleboog L</t>
@@ -410,12 +398,6 @@
     <t>RF</t>
   </si>
   <si>
-    <t>aCCP</t>
-  </si>
-  <si>
-    <t>PATNR</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -722,10 +704,28 @@
     <t>DUMMY2100</t>
   </si>
   <si>
-    <t>Not_Age</t>
+    <t>Not_Sex</t>
   </si>
   <si>
-    <t>Not_Sex</t>
+    <t>Patient number</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Thrombocytes</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>ACPA</t>
   </si>
 </sst>
 </file>
@@ -1099,401 +1099,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB15-C56C-476F-841C-D1AC343D3A50}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
         <v>228</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>65</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>67</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>68</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>69</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>71</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>73</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>74</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>75</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>76</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>77</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>78</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>79</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>80</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>81</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>83</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
         <v>84</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
         <v>85</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" t="s">
         <v>86</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" t="s">
         <v>87</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
         <v>89</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>90</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>91</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>92</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>93</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>94</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>95</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>96</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>97</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>98</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
         <v>99</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" t="s">
         <v>100</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>101</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>102</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>103</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
         <v>104</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" t="s">
         <v>105</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" t="s">
         <v>106</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" t="s">
         <v>107</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" t="s">
         <v>108</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
         <v>109</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" t="s">
         <v>110</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" t="s">
         <v>111</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" t="s">
         <v>112</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
         <v>113</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" t="s">
         <v>114</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" t="s">
         <v>115</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" t="s">
         <v>116</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DW1" t="s">
         <v>117</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DX1" t="s">
         <v>118</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>7.3155289999999997</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>10.501483</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>7.3155289999999997</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>10.106171</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>21.114977</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>42.662210000000002</v>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>7.5233639999999999</v>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>7.3155289999999997</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>7.3155289999999997</v>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>17.197199999999999</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>8.5832610000000003</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <v>7.3155289999999997</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>9.2621479999999998</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>21.078793000000001</v>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>45.125453999999998</v>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B17">
         <v>8.0367540000000002</v>
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B18">
         <v>7.3155289999999997</v>
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>7.3155289999999997</v>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>7.3155289999999997</v>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B21">
         <v>11.767745</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B22">
         <v>12.141019999999999</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B23">
         <v>29.408085</v>
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24">
         <v>24.943726000000002</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B25">
         <v>20.070595000000001</v>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B26">
         <v>10.638248000000001</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>7.3155289999999997</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B28">
         <v>10.698852</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B29">
         <v>20.494420000000002</v>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B30">
         <v>27.664362000000001</v>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -12687,7 +12687,7 @@
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B31">
         <v>7.3155289999999997</v>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B32">
         <v>16.940187000000002</v>
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B33">
         <v>8.7973219999999994</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B34">
         <v>7.3155289999999997</v>
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B35">
         <v>14.690393</v>
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B36">
         <v>33.633152000000003</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B37">
         <v>7.9135540000000004</v>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B38">
         <v>7.3155289999999997</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B39">
         <v>7.8311577000000003</v>
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B40">
         <v>7.3155289999999997</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B41">
         <v>10.072967999999999</v>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B42">
         <v>22.651695</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B43">
         <v>41.62388</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B44">
         <v>20.394390000000001</v>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B45">
         <v>38.656734</v>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -18477,7 +18477,7 @@
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B46">
         <v>16.423157</v>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B47">
         <v>16.038177000000001</v>
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -19249,7 +19249,7 @@
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B48">
         <v>7.3155289999999997</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -19635,7 +19635,7 @@
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B49">
         <v>8.5560379999999991</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B50">
         <v>18.666761000000001</v>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B51">
         <v>7.3155289999999997</v>
@@ -20434,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -20793,7 +20793,7 @@
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B52">
         <v>7.3155289999999997</v>
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B53">
         <v>7.3155289999999997</v>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -21565,7 +21565,7 @@
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B54">
         <v>9.2163509999999995</v>
@@ -21592,7 +21592,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -21951,7 +21951,7 @@
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B55">
         <v>7.6569450000000003</v>
@@ -21978,7 +21978,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -22337,7 +22337,7 @@
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B56">
         <v>24.247537999999999</v>
@@ -22364,7 +22364,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -22723,7 +22723,7 @@
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B57">
         <v>19.180895</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -23109,7 +23109,7 @@
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B58">
         <v>7.3155289999999997</v>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -23495,7 +23495,7 @@
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>30.082483</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -23881,7 +23881,7 @@
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B60">
         <v>7.3155289999999997</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -24267,7 +24267,7 @@
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B61">
         <v>12.107234999999999</v>
@@ -24294,7 +24294,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -24653,7 +24653,7 @@
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B62">
         <v>7.3155289999999997</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -25039,7 +25039,7 @@
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B63">
         <v>16.632262999999998</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -25425,7 +25425,7 @@
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B64">
         <v>48.999724999999998</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B65">
         <v>34.471114999999998</v>
@@ -25838,7 +25838,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -26197,7 +26197,7 @@
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B66">
         <v>10.781708999999999</v>
@@ -26224,7 +26224,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -26583,7 +26583,7 @@
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B67">
         <v>7.3155289999999997</v>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -26969,7 +26969,7 @@
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B68">
         <v>14.896912</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -27355,7 +27355,7 @@
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B69">
         <v>28.702347</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -27741,7 +27741,7 @@
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B70">
         <v>26.630013999999999</v>
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -28127,7 +28127,7 @@
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B71">
         <v>22.315376000000001</v>
@@ -28154,7 +28154,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -28513,7 +28513,7 @@
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B72">
         <v>23.045781999999999</v>
@@ -28540,7 +28540,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B73">
         <v>13.225313999999999</v>
@@ -28926,7 +28926,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -29285,7 +29285,7 @@
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B74">
         <v>20.074936000000001</v>
@@ -29312,7 +29312,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -29671,7 +29671,7 @@
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B75">
         <v>8.1146740000000008</v>
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -30057,7 +30057,7 @@
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B76">
         <v>16.409151000000001</v>
@@ -30084,7 +30084,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -30443,7 +30443,7 @@
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B77">
         <v>15.713512</v>
@@ -30470,7 +30470,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -30829,7 +30829,7 @@
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B78">
         <v>12.260661000000001</v>
@@ -30856,7 +30856,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -31215,7 +31215,7 @@
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B79">
         <v>10.236242000000001</v>
@@ -31242,7 +31242,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -31601,7 +31601,7 @@
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B80">
         <v>7.3155289999999997</v>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -31987,7 +31987,7 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B81">
         <v>13.391586</v>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -32373,7 +32373,7 @@
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B82">
         <v>32.701390000000004</v>
@@ -32400,7 +32400,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -32759,7 +32759,7 @@
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B83">
         <v>7.3155289999999997</v>
@@ -32786,7 +32786,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -33145,7 +33145,7 @@
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B84">
         <v>7.3155289999999997</v>
@@ -33172,7 +33172,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -33531,7 +33531,7 @@
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B85">
         <v>20.281094</v>
@@ -33558,7 +33558,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -33917,7 +33917,7 @@
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B86">
         <v>11.786898000000001</v>
@@ -33944,7 +33944,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -34303,7 +34303,7 @@
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B87">
         <v>13.596584</v>
@@ -34330,7 +34330,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -34689,7 +34689,7 @@
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B88">
         <v>7.3155289999999997</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -35075,7 +35075,7 @@
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B89">
         <v>7.3155289999999997</v>
@@ -35102,7 +35102,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -35461,7 +35461,7 @@
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B90">
         <v>13.98362</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -35847,7 +35847,7 @@
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B91">
         <v>25.313352999999999</v>
@@ -35874,7 +35874,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -36233,7 +36233,7 @@
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B92">
         <v>29.240155999999999</v>
@@ -36260,7 +36260,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -36619,7 +36619,7 @@
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B93">
         <v>25.289154</v>
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B94">
         <v>7.3155289999999997</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B95">
         <v>7.3155289999999997</v>
@@ -37418,7 +37418,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -37777,7 +37777,7 @@
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B96">
         <v>43.695689999999999</v>
@@ -37804,7 +37804,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -38163,7 +38163,7 @@
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B97">
         <v>7.3155289999999997</v>
@@ -38190,7 +38190,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -38549,7 +38549,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B98">
         <v>18.176673999999998</v>
@@ -38576,7 +38576,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -38935,7 +38935,7 @@
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B99">
         <v>14.252483</v>
@@ -38962,7 +38962,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -39321,7 +39321,7 @@
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B100">
         <v>7.3155289999999997</v>
@@ -39348,7 +39348,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -39707,7 +39707,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B101">
         <v>12.889889999999999</v>
@@ -39734,7 +39734,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/tests/input/invalid.xlsx
+++ b/tests/input/invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521777F-33B1-47A0-B32D-45952B8C329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400A482-3B50-4F10-90DE-87352A2A8CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="480" windowWidth="7185" windowHeight="7605" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -39,360 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="230">
   <si>
     <t>MCV</t>
-  </si>
-  <si>
-    <t>Zwelling_Elleboog L</t>
-  </si>
-  <si>
-    <t>Zwelling_IP links</t>
-  </si>
-  <si>
-    <t>Zwelling_IP rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_elleboog R</t>
-  </si>
-  <si>
-    <t>Zwelling_knie links</t>
-  </si>
-  <si>
-    <t>Zwelling_knie rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pols L</t>
-  </si>
-  <si>
-    <t>Zwelling_pols R</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder L</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder R</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair R</t>
-  </si>
-  <si>
-    <t>Pijn_Elleboog L</t>
-  </si>
-  <si>
-    <t>Pijn_IP links</t>
-  </si>
-  <si>
-    <t>Pijn_IP rechts</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_elleboog R</t>
-  </si>
-  <si>
-    <t>Pijn_heup links</t>
-  </si>
-  <si>
-    <t>Pijn_heup rechts</t>
-  </si>
-  <si>
-    <t>Pijn_knie links</t>
-  </si>
-  <si>
-    <t>Pijn_knie rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pols L</t>
-  </si>
-  <si>
-    <t>Pijn_pols R</t>
-  </si>
-  <si>
-    <t>Pijn_schouder L</t>
-  </si>
-  <si>
-    <t>Pijn_schouder R</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair R</t>
   </si>
   <si>
     <t>RF</t>
@@ -726,6 +372,360 @@
   </si>
   <si>
     <t>ACPA</t>
+  </si>
+  <si>
+    <t>s_el_left</t>
+  </si>
+  <si>
+    <t>s_pip1_left</t>
+  </si>
+  <si>
+    <t>s_pip1_right</t>
+  </si>
+  <si>
+    <t>s_ac_left</t>
+  </si>
+  <si>
+    <t>s_ac_right</t>
+  </si>
+  <si>
+    <t>s_ank_left</t>
+  </si>
+  <si>
+    <t>s_ank_right</t>
+  </si>
+  <si>
+    <t>s_dip2_left</t>
+  </si>
+  <si>
+    <t>s_dip2_right</t>
+  </si>
+  <si>
+    <t>s_dip3_left</t>
+  </si>
+  <si>
+    <t>s_dip3_right</t>
+  </si>
+  <si>
+    <t>s_dip4_left</t>
+  </si>
+  <si>
+    <t>s_dip4_right</t>
+  </si>
+  <si>
+    <t>s_dip5_left</t>
+  </si>
+  <si>
+    <t>s_dip5_right</t>
+  </si>
+  <si>
+    <t>s_el_right</t>
+  </si>
+  <si>
+    <t>s_kn_left</t>
+  </si>
+  <si>
+    <t>s_kn_right</t>
+  </si>
+  <si>
+    <t>s_mcp1_left</t>
+  </si>
+  <si>
+    <t>s_mcp1_right</t>
+  </si>
+  <si>
+    <t>s_mcp2_left</t>
+  </si>
+  <si>
+    <t>s_mcp2_right</t>
+  </si>
+  <si>
+    <t>s_mcp3_left</t>
+  </si>
+  <si>
+    <t>s_mcp3_right</t>
+  </si>
+  <si>
+    <t>s_mcp4_left</t>
+  </si>
+  <si>
+    <t>s_mcp4_right</t>
+  </si>
+  <si>
+    <t>s_mcp5_left</t>
+  </si>
+  <si>
+    <t>s_mcp5_right</t>
+  </si>
+  <si>
+    <t>s_mtp1_left</t>
+  </si>
+  <si>
+    <t>s_mtp1_right</t>
+  </si>
+  <si>
+    <t>s_mtp2_left</t>
+  </si>
+  <si>
+    <t>s_mtp2_right</t>
+  </si>
+  <si>
+    <t>s_mtp3_left</t>
+  </si>
+  <si>
+    <t>s_mtp3_right</t>
+  </si>
+  <si>
+    <t>s_mtp4_left</t>
+  </si>
+  <si>
+    <t>s_mtp4_right</t>
+  </si>
+  <si>
+    <t>s_mtp5_left</t>
+  </si>
+  <si>
+    <t>s_mtp5_right</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>s_pip2_left</t>
+  </si>
+  <si>
+    <t>s_pip2_right</t>
+  </si>
+  <si>
+    <t>s_pip3_left</t>
+  </si>
+  <si>
+    <t>s_pip3_right</t>
+  </si>
+  <si>
+    <t>s_pip4_left</t>
+  </si>
+  <si>
+    <t>s_pip4_right</t>
+  </si>
+  <si>
+    <t>s_pip5_left</t>
+  </si>
+  <si>
+    <t>s_pip5_right</t>
+  </si>
+  <si>
+    <t>s_wr_left</t>
+  </si>
+  <si>
+    <t>s_wr_right</t>
+  </si>
+  <si>
+    <t>s_sh_left</t>
+  </si>
+  <si>
+    <t>s_sh_right</t>
+  </si>
+  <si>
+    <t>s_sc_left</t>
+  </si>
+  <si>
+    <t>s_sc_right</t>
+  </si>
+  <si>
+    <t>s_tar_left</t>
+  </si>
+  <si>
+    <t>s_tar_right</t>
+  </si>
+  <si>
+    <t>s_tm_left</t>
+  </si>
+  <si>
+    <t>s_tm_right</t>
+  </si>
+  <si>
+    <t>t_el_left</t>
+  </si>
+  <si>
+    <t>t_pip1_left</t>
+  </si>
+  <si>
+    <t>t_pip1_right</t>
+  </si>
+  <si>
+    <t>t_ac_left</t>
+  </si>
+  <si>
+    <t>t_ac_right</t>
+  </si>
+  <si>
+    <t>t_ank_left</t>
+  </si>
+  <si>
+    <t>t_ank_right</t>
+  </si>
+  <si>
+    <t>t_dip2_left</t>
+  </si>
+  <si>
+    <t>t_dip2_right</t>
+  </si>
+  <si>
+    <t>t_dip3_left</t>
+  </si>
+  <si>
+    <t>t_dip3_right</t>
+  </si>
+  <si>
+    <t>t_dip4_left</t>
+  </si>
+  <si>
+    <t>t_dip4_right</t>
+  </si>
+  <si>
+    <t>t_dip5_left</t>
+  </si>
+  <si>
+    <t>t_dip5_right</t>
+  </si>
+  <si>
+    <t>t_el_right</t>
+  </si>
+  <si>
+    <t>t_hip_left</t>
+  </si>
+  <si>
+    <t>t_hip_right</t>
+  </si>
+  <si>
+    <t>t_kn_left</t>
+  </si>
+  <si>
+    <t>t_kn_right</t>
+  </si>
+  <si>
+    <t>t_mcp1_left</t>
+  </si>
+  <si>
+    <t>t_mcp1_right</t>
+  </si>
+  <si>
+    <t>t_mcp2_left</t>
+  </si>
+  <si>
+    <t>t_mcp2_right</t>
+  </si>
+  <si>
+    <t>t_mcp3_left</t>
+  </si>
+  <si>
+    <t>t_mcp3_right</t>
+  </si>
+  <si>
+    <t>t_mcp4_left</t>
+  </si>
+  <si>
+    <t>t_mcp4_right</t>
+  </si>
+  <si>
+    <t>t_mcp5_left</t>
+  </si>
+  <si>
+    <t>t_mcp5_right</t>
+  </si>
+  <si>
+    <t>t_mtp1_left</t>
+  </si>
+  <si>
+    <t>t_mtp1_right</t>
+  </si>
+  <si>
+    <t>t_mtp2_left</t>
+  </si>
+  <si>
+    <t>t_mtp2_right</t>
+  </si>
+  <si>
+    <t>t_mtp3_left</t>
+  </si>
+  <si>
+    <t>t_mtp3_right</t>
+  </si>
+  <si>
+    <t>t_mtp4_left</t>
+  </si>
+  <si>
+    <t>t_mtp4_right</t>
+  </si>
+  <si>
+    <t>t_mtp5_left</t>
+  </si>
+  <si>
+    <t>t_mtp5_right</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>t_pip2_left</t>
+  </si>
+  <si>
+    <t>t_pip2_right</t>
+  </si>
+  <si>
+    <t>t_pip3_left</t>
+  </si>
+  <si>
+    <t>t_pip3_right</t>
+  </si>
+  <si>
+    <t>t_pip4_left</t>
+  </si>
+  <si>
+    <t>t_pip4_right</t>
+  </si>
+  <si>
+    <t>t_pip5_left</t>
+  </si>
+  <si>
+    <t>t_pip5_right</t>
+  </si>
+  <si>
+    <t>t_wr_left</t>
+  </si>
+  <si>
+    <t>t_wr_right</t>
+  </si>
+  <si>
+    <t>t_sh_left</t>
+  </si>
+  <si>
+    <t>t_sh_right</t>
+  </si>
+  <si>
+    <t>t_sc_left</t>
+  </si>
+  <si>
+    <t>t_sc_right</t>
+  </si>
+  <si>
+    <t>t_tar_left</t>
+  </si>
+  <si>
+    <t>t_tar_right</t>
+  </si>
+  <si>
+    <t>t_tm_left</t>
+  </si>
+  <si>
+    <t>t_tm_right</t>
   </si>
 </sst>
 </file>
@@ -1099,401 +1099,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB15-C56C-476F-841C-D1AC343D3A50}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DR1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" t="s">
+      <c r="DS1" t="s">
         <v>224</v>
       </c>
-      <c r="C1" t="s">
+      <c r="DT1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="DU1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="DV1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="DW1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="DX1" t="s">
         <v>229</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>7.3155289999999997</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>10.501483</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>7.3155289999999997</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>10.106171</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>21.114977</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>42.662210000000002</v>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>7.5233639999999999</v>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>7.3155289999999997</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>7.3155289999999997</v>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>17.197199999999999</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>8.5832610000000003</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>7.3155289999999997</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9.2621479999999998</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>21.078793000000001</v>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>45.125453999999998</v>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>8.0367540000000002</v>
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>7.3155289999999997</v>
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>7.3155289999999997</v>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>7.3155289999999997</v>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>11.767745</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>12.141019999999999</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>29.408085</v>
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>24.943726000000002</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>20.070595000000001</v>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>10.638248000000001</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>7.3155289999999997</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>10.698852</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>20.494420000000002</v>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>27.664362000000001</v>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -12687,7 +12687,7 @@
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>7.3155289999999997</v>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>16.940187000000002</v>
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>8.7973219999999994</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>7.3155289999999997</v>
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>14.690393</v>
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>33.633152000000003</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>7.9135540000000004</v>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>7.3155289999999997</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>7.8311577000000003</v>
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>7.3155289999999997</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>10.072967999999999</v>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>22.651695</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>41.62388</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>20.394390000000001</v>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>38.656734</v>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -18477,7 +18477,7 @@
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>16.423157</v>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>16.038177000000001</v>
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -19249,7 +19249,7 @@
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>7.3155289999999997</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -19635,7 +19635,7 @@
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>8.5560379999999991</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>18.666761000000001</v>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>7.3155289999999997</v>
@@ -20434,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -20793,7 +20793,7 @@
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>7.3155289999999997</v>
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>7.3155289999999997</v>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -21565,7 +21565,7 @@
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>9.2163509999999995</v>
@@ -21592,7 +21592,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -21951,7 +21951,7 @@
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>7.6569450000000003</v>
@@ -21978,7 +21978,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -22337,7 +22337,7 @@
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>24.247537999999999</v>
@@ -22364,7 +22364,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -22723,7 +22723,7 @@
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>19.180895</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -23109,7 +23109,7 @@
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>7.3155289999999997</v>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -23495,7 +23495,7 @@
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>30.082483</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -23881,7 +23881,7 @@
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>7.3155289999999997</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -24267,7 +24267,7 @@
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>12.107234999999999</v>
@@ -24294,7 +24294,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -24653,7 +24653,7 @@
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>7.3155289999999997</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -25039,7 +25039,7 @@
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>16.632262999999998</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -25425,7 +25425,7 @@
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>48.999724999999998</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>34.471114999999998</v>
@@ -25838,7 +25838,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -26197,7 +26197,7 @@
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>10.781708999999999</v>
@@ -26224,7 +26224,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -26583,7 +26583,7 @@
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>7.3155289999999997</v>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -26969,7 +26969,7 @@
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>14.896912</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -27355,7 +27355,7 @@
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>28.702347</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -27741,7 +27741,7 @@
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>26.630013999999999</v>
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -28127,7 +28127,7 @@
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>22.315376000000001</v>
@@ -28154,7 +28154,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -28513,7 +28513,7 @@
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>23.045781999999999</v>
@@ -28540,7 +28540,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>13.225313999999999</v>
@@ -28926,7 +28926,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -29285,7 +29285,7 @@
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>20.074936000000001</v>
@@ -29312,7 +29312,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -29671,7 +29671,7 @@
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>8.1146740000000008</v>
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -30057,7 +30057,7 @@
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>16.409151000000001</v>
@@ -30084,7 +30084,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -30443,7 +30443,7 @@
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>15.713512</v>
@@ -30470,7 +30470,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -30829,7 +30829,7 @@
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>12.260661000000001</v>
@@ -30856,7 +30856,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -31215,7 +31215,7 @@
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>10.236242000000001</v>
@@ -31242,7 +31242,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -31601,7 +31601,7 @@
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>7.3155289999999997</v>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -31987,7 +31987,7 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>13.391586</v>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -32373,7 +32373,7 @@
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>32.701390000000004</v>
@@ -32400,7 +32400,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -32759,7 +32759,7 @@
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>7.3155289999999997</v>
@@ -32786,7 +32786,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -33145,7 +33145,7 @@
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>7.3155289999999997</v>
@@ -33172,7 +33172,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -33531,7 +33531,7 @@
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>20.281094</v>
@@ -33558,7 +33558,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -33917,7 +33917,7 @@
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>11.786898000000001</v>
@@ -33944,7 +33944,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -34303,7 +34303,7 @@
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>13.596584</v>
@@ -34330,7 +34330,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -34689,7 +34689,7 @@
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>7.3155289999999997</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -35075,7 +35075,7 @@
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>7.3155289999999997</v>
@@ -35102,7 +35102,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -35461,7 +35461,7 @@
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>13.98362</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -35847,7 +35847,7 @@
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>25.313352999999999</v>
@@ -35874,7 +35874,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -36233,7 +36233,7 @@
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>29.240155999999999</v>
@@ -36260,7 +36260,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -36619,7 +36619,7 @@
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>25.289154</v>
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>7.3155289999999997</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>7.3155289999999997</v>
@@ -37418,7 +37418,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -37777,7 +37777,7 @@
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>43.695689999999999</v>
@@ -37804,7 +37804,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -38163,7 +38163,7 @@
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>7.3155289999999997</v>
@@ -38190,7 +38190,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -38549,7 +38549,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>18.176673999999998</v>
@@ -38576,7 +38576,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -38935,7 +38935,7 @@
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>14.252483</v>
@@ -38962,7 +38962,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -39321,7 +39321,7 @@
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>7.3155289999999997</v>
@@ -39348,7 +39348,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -39707,7 +39707,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>12.889889999999999</v>
@@ -39734,7 +39734,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K101">
         <v>0</v>
